--- a/Require/2016-2017-Java-PhieuVanDap-DAQuanLyBanHang.xlsx
+++ b/Require/2016-2017-Java-PhieuVanDap-DAQuanLyBanHang.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\HK3_HCDH\PTTKPM\Đồ án\LTUDJava_QLBanHang\Require\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - LT Ứng dụng Java" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - LT Ứng dụng Java" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>LT Ứng dụng Java</t>
   </si>
@@ -164,11 +171,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -180,19 +184,19 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -239,15 +243,11 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
@@ -260,9 +260,7 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
@@ -272,36 +270,24 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="11"/>
@@ -324,30 +310,20 @@
     </border>
     <border>
       <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="11"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="11"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -369,25 +345,15 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -395,28 +361,20 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="10"/>
@@ -439,9 +397,7 @@
     </border>
     <border>
       <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="10"/>
@@ -449,12 +405,8 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="10"/>
@@ -463,99 +415,114 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,28 +533,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffbfbfbf"/>
-      <rgbColor rgb="ff63b2de"/>
-      <rgbColor rgb="ff93e1b9"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FF63B2DE"/>
+      <rgbColor rgb="FF93E1B9"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -713,7 +737,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -722,7 +746,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -731,7 +755,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -795,8 +819,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -804,7 +828,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -812,7 +836,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -831,7 +855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,7 +863,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -867,7 +891,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -893,7 +917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -919,7 +943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -945,7 +969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -971,7 +995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -997,7 +1021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1023,7 +1047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1049,7 +1073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1075,7 +1099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1088,9 +1112,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1107,7 +1137,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1126,7 +1156,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1182,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1208,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1234,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1260,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1286,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1338,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1364,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1390,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1373,9 +1403,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1389,7 +1425,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1408,7 +1444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1438,7 +1474,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1464,7 +1500,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1490,7 +1526,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1516,7 +1552,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1542,7 +1578,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1568,7 +1604,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1594,7 +1630,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1620,7 +1656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1646,7 +1682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1659,625 +1695,633 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G45"/>
+  <dimension ref="A1:IV45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4609" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8672" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.4453" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
+    <col min="8" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="25.35" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="11">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s" s="11">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" ht="36.35" customHeight="1">
-      <c r="A11" t="s" s="21">
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s" s="21">
+      <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s" s="21">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s" s="21">
+      <c r="D11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s" s="21">
+      <c r="E11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F11" t="s" s="21">
+      <c r="F11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s" s="21">
+      <c r="G11" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" t="s" s="22">
+    <row r="12" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19">
         <v>2.75</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" ht="36.35" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" t="s" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s" s="11">
+      <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="25">
+      <c r="D13" s="9"/>
+      <c r="E13" s="34">
         <v>0.5</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" t="s" s="11">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" t="s" s="11">
+      <c r="D14" s="9"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="25">
+      <c r="C15" s="26"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="34">
         <v>0.25</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" t="s" s="11">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" t="s" s="27">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="28">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="33">
         <v>1</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="29"/>
-      <c r="C18" t="s" s="27">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D18" t="s" s="27">
+      <c r="D18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" ht="36.35" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" t="s" s="27">
+      <c r="E18" s="25"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="s" s="27">
+      <c r="D19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" t="s" s="27">
+      <c r="E19" s="25"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s" s="27">
+      <c r="D20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" t="s" s="11">
+      <c r="E20" s="25"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="25">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="20">
         <v>0.25</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" ht="36.35" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" t="s" s="11">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="36.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="25">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="20">
         <v>0.25</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" ht="22.35" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" t="s" s="11">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="25">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="20">
         <v>0.25</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" ht="22.35" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" t="s" s="11">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="25">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="20">
         <v>0.25</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" ht="22.35" customHeight="1">
-      <c r="A25" t="s" s="22">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19">
         <v>3.25</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" ht="22.35" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" t="s" s="11">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="11">
+      <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="25">
+      <c r="D26" s="9"/>
+      <c r="E26" s="20">
         <v>0.25</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" ht="22.35" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" t="s" s="27">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s" s="11">
+      <c r="C27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="28">
+      <c r="D27" s="9"/>
+      <c r="E27" s="22">
         <v>0.5</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" ht="22.35" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" t="s" s="11">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="s" s="11">
+      <c r="C28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="25">
+      <c r="D28" s="9"/>
+      <c r="E28" s="20">
         <v>0.25</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" ht="22.35" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" t="s" s="27">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s" s="11">
+      <c r="C29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="28">
+      <c r="D29" s="9"/>
+      <c r="E29" s="22">
         <v>0.5</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" ht="22.35" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" t="s" s="11">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C30" t="s" s="11">
+      <c r="C30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="25">
+      <c r="D30" s="9"/>
+      <c r="E30" s="20">
         <v>0.25</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" ht="22.35" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" t="s" s="11">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C31" t="s" s="11">
+      <c r="C31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="25">
+      <c r="D31" s="9"/>
+      <c r="E31" s="20">
         <v>0.25</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" ht="22.35" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" t="s" s="11">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C32" t="s" s="11">
+      <c r="C32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="25">
+      <c r="D32" s="9"/>
+      <c r="E32" s="20">
         <v>0.25</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" ht="22.35" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" t="s" s="11">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s" s="11">
+      <c r="C33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="25">
+      <c r="D33" s="9"/>
+      <c r="E33" s="20">
         <v>0.25</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" ht="22.35" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" t="s" s="11">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C34" t="s" s="11">
+      <c r="C34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="25">
+      <c r="D34" s="9"/>
+      <c r="E34" s="20">
         <v>0.25</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" ht="22.35" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" t="s" s="27">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C35" t="s" s="11">
+      <c r="C35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="28">
+      <c r="D35" s="9"/>
+      <c r="E35" s="22">
         <v>0.5</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" ht="22.35" customHeight="1">
-      <c r="A36" t="s" s="22">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19">
         <v>3.5</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" ht="22.35" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" t="s" s="27">
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="28">
+      <c r="C37" s="6"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="22">
         <v>0.75</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" ht="22.35" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" t="s" s="27">
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="28">
+      <c r="C38" s="6"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="22">
         <v>0.75</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" ht="22.35" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" t="s" s="11">
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="25">
+      <c r="C39" s="6"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="20">
         <v>0.25</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" ht="22.35" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" t="s" s="11">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="25">
+      <c r="C40" s="6"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="20">
         <v>0.25</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" ht="22.35" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" t="s" s="11">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="28">
+      <c r="C41" s="6"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="22">
         <v>0.5</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" ht="22.35" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" t="s" s="11">
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="25">
+      <c r="C42" s="6"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="20">
         <v>0.25</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" ht="22.35" customHeight="1">
-      <c r="A43" s="14"/>
-      <c r="B43" t="s" s="11">
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="28">
+      <c r="C43" s="6"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="22">
         <v>0.75</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" ht="22.35" customHeight="1">
-      <c r="A44" t="s" s="22">
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="24">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19">
         <v>0.5</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-    </row>
-    <row r="45" ht="22.35" customHeight="1">
-      <c r="A45" t="s" s="22">
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="19">
         <v>10</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2292,8 +2336,8 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E13:E14"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
